--- a/GameMaster/GameDesign/详细方案/舰船.xlsx
+++ b/GameMaster/GameDesign/详细方案/舰船.xlsx
@@ -1,90 +1,173 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\详细方案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59842F75-51BC-4967-9060-A7FE8C750946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A962374-5A35-42A1-8AD3-3D25E0EA9412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="645" windowWidth="25755" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="母舰" sheetId="1" r:id="rId1"/>
+    <sheet name="舰船模块" sheetId="1" r:id="rId1"/>
     <sheet name="其他舰船" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>母舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始玩家拥有一条母舰，母舰能进行建设和航行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对母舰进行的操作：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航行（在行星系中移动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩建（扩建面积）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舰船结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指挥舰桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超空间驱动器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装甲防御</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探测速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货仓储量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速</t>
+  </si>
+  <si>
+    <t>射程</t>
+  </si>
+  <si>
+    <t>命中</t>
+  </si>
+  <si>
+    <t>最终</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威力下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威力上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIY部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火控模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精度控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏核心2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_HitRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_FireRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_FireRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_FirePower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +212,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -150,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -158,11 +257,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -170,6 +354,55 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -518,45 +751,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY27"/>
+  <dimension ref="A1:BD39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="24" width="4.75" style="5" customWidth="1"/>
-    <col min="25" max="37" width="4.375" style="5" customWidth="1"/>
-    <col min="38" max="43" width="9" style="5"/>
-    <col min="44" max="51" width="9" style="1"/>
+    <col min="1" max="1" width="6.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="5" customWidth="1"/>
+    <col min="4" max="6" width="7.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="8" customWidth="1"/>
+    <col min="8" max="9" width="7.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="8" customWidth="1"/>
+    <col min="11" max="12" width="7.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="8.125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="8.125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="8.125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="8.125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="8.125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="8.125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="8.125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="8.125" style="8" customWidth="1"/>
+    <col min="23" max="29" width="4.75" style="5" customWidth="1"/>
+    <col min="30" max="42" width="4.375" style="5" customWidth="1"/>
+    <col min="43" max="48" width="9" style="5"/>
+    <col min="49" max="56" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:48" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="7"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -578,70 +829,358 @@
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
       <c r="AQ1" s="4"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
+      <c r="H18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="13">
+        <v>50</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="13">
+        <v>60</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" s="13">
+        <v>100</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="V18" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="M19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="16">
+        <f>(G22-E22)*J23*10+N18+(G24-E24)*J24*10+(G26-E26)*J27*10</f>
+        <v>14</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="16">
+        <f>(G24-E24)*J25*10+P18</f>
+        <v>40</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="16">
+        <f>(G28-E28)*10*J28+R18</f>
+        <v>135</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" s="16">
+        <f>(G26-E26)*J26*10+T18</f>
+        <v>175</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19" s="16">
+        <f>(G22-E22)*J22*10+V18+(G28-E28)*10*J29</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="M21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="E22" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="D6" s="5" t="s">
+      <c r="F22" s="13">
+        <v>6</v>
+      </c>
+      <c r="G22" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="H22" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="15">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
         <v>10</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J26" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J27" s="5" t="s">
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="15">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="13">
         <v>12</v>
       </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
+        <v>15</v>
+      </c>
+      <c r="G26" s="13">
+        <v>15</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="15">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="13">
+        <v>12</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
+        <v>15</v>
+      </c>
+      <c r="G28" s="13">
+        <v>15</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="15">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -652,7 +1191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A539EE-EBA4-45DE-8C8B-527F5380EB28}">
   <dimension ref="A1:AY1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T17" sqref="T17:U17"/>
     </sheetView>
   </sheetViews>

--- a/GameMaster/GameDesign/详细方案/舰船.xlsx
+++ b/GameMaster/GameDesign/详细方案/舰船.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\详细方案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A962374-5A35-42A1-8AD3-3D25E0EA9412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFF5F21-4C05-48D5-884B-FE49D01FFE7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="645" windowWidth="25755" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船模块" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,10 @@
   </si>
   <si>
     <t>Weapon_FirePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性固定加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,6 +386,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,12 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -842,43 +846,62 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D7" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D8" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D12" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
@@ -986,10 +1009,10 @@
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="13">
         <v>5.5</v>
       </c>
@@ -1002,34 +1025,34 @@
       <c r="G22" s="13">
         <v>4</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="22"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="22"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="15">
         <v>-0.3</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="13">
         <v>1.2</v>
       </c>
@@ -1042,34 +1065,34 @@
       <c r="G24" s="13">
         <v>0</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="22"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="15">
         <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="22"/>
+      <c r="I25" s="18"/>
       <c r="J25" s="15">
         <v>-0.3</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="13">
         <v>12</v>
       </c>
@@ -1082,34 +1105,34 @@
       <c r="G26" s="13">
         <v>15</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="22"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="22"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="15">
         <v>-0.2</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="13">
         <v>12</v>
       </c>
@@ -1122,25 +1145,25 @@
       <c r="G28" s="13">
         <v>15</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="22"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="22"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="15">
         <v>-0.2</v>
       </c>
@@ -1167,11 +1190,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H24:I24"/>
     <mergeCell ref="B28:C29"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I29"/>
@@ -1180,6 +1198,11 @@
     <mergeCell ref="B26:C27"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H24:I24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
